--- a/StructureDefinition-profile-Bundle.xlsx
+++ b/StructureDefinition-profile-Bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6287598-06:00</t>
+    <t>2026-02-09T22:05:42.9940113-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -411,69 +411,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Bundle.type.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Bundle.type.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.type|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Bundle.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Bundle.type.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>Bundle.timestamp</t>
@@ -546,10 +483,17 @@
     <t>Bundle.link.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
   </si>
   <si>
     <t>n/a</t>
@@ -562,6 +506,10 @@
 user content</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -569,6 +517,13 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Bundle.link.modifierExtension</t>
@@ -600,31 +555,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Bundle.link.relation.id</t>
-  </si>
-  <si>
-    <t>Bundle.link.relation.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.link.relation|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Bundle.link.relation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Bundle.link.relation.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -663,28 +593,6 @@
   </si>
   <si>
     <t>A series of links that provide context to this entry.</t>
-  </si>
-  <si>
-    <t>Bundle.entry.link.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry.link.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.entry.link|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Bundle.entry.link from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Bundle.entry.link.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.link.relation</t>
-  </si>
-  <si>
-    <t>Bundle.entry.link.url</t>
   </si>
   <si>
     <t>Bundle.entry.fullUrl</t>
@@ -1254,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1273,7 +1181,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.80078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.4296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2245,7 +2153,7 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>131</v>
@@ -2256,7 +2164,9 @@
       <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2305,7 +2215,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2317,7 +2227,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -2326,18 +2236,18 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2345,10 +2255,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2357,18 +2267,20 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2405,29 +2317,31 @@
         <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC10" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
@@ -2444,10 +2358,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2455,10 +2369,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2467,19 +2381,19 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2529,7 +2443,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2538,10 +2452,10 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
@@ -2558,10 +2472,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2584,13 +2498,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2641,7 +2555,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2659,7 +2573,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2670,21 +2584,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2693,19 +2607,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2755,73 +2669,75 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2869,25 +2785,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -2898,10 +2814,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2909,10 +2825,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -2924,17 +2840,15 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2983,13 +2897,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3012,10 +2926,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3023,7 +2937,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
@@ -3035,16 +2949,16 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3095,10 +3009,10 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>87</v>
@@ -3107,13 +3021,13 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3124,14 +3038,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3147,20 +3061,18 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3209,7 +3121,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3221,13 +3133,13 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3238,46 +3150,42 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3325,25 +3233,25 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3354,21 +3262,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3377,18 +3285,20 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3437,25 +3347,25 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3466,42 +3376,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3549,25 +3463,25 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3578,10 +3492,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3589,7 +3503,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3601,16 +3515,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3649,17 +3563,19 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3671,7 +3587,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3688,10 +3604,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3699,7 +3615,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>87</v>
@@ -3711,18 +3627,20 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3771,19 +3689,19 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -3800,10 +3718,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3823,10 +3741,10 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>190</v>
@@ -3856,7 +3774,7 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
         <v>77</v>
@@ -3883,7 +3801,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3912,10 +3830,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3923,7 +3841,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
@@ -3938,13 +3856,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3995,16 +3913,16 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -4038,7 +3956,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4047,16 +3965,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4107,25 +4025,25 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4136,21 +4054,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4162,15 +4080,17 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4219,25 +4139,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4248,14 +4168,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4268,24 +4188,26 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4333,7 +4255,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4345,13 +4267,13 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4362,46 +4284,44 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4425,13 +4345,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4449,25 +4369,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4478,10 +4398,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4492,7 +4412,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4504,15 +4424,17 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4561,13 +4483,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4590,10 +4512,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4613,16 +4535,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4673,7 +4595,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4682,16 +4604,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4702,10 +4624,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4713,10 +4635,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4728,13 +4650,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4773,35 +4695,37 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4812,14 +4736,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4838,15 +4762,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4895,7 +4821,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4904,16 +4830,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4924,14 +4850,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4950,19 +4876,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5011,7 +4937,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5023,7 +4949,7 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5040,10 +4966,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5066,13 +4992,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5099,13 +5025,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5123,7 +5049,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5152,10 +5078,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5181,12 +5107,14 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5235,7 +5163,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5264,10 +5192,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5290,17 +5218,15 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5349,7 +5275,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5378,10 +5304,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5404,13 +5330,13 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5461,7 +5387,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5473,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5490,10 +5416,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5516,13 +5442,13 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5573,7 +5499,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5582,7 +5508,7 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
@@ -5602,10 +5528,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5625,16 +5551,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5685,7 +5611,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5697,13 +5623,13 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5714,21 +5640,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5737,20 +5663,18 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5799,25 +5723,25 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5828,46 +5752,42 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -5915,25 +5835,25 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -5944,21 +5864,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -5967,19 +5887,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6005,13 +5925,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6029,25 +5949,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6058,44 +5978,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6143,25 +6065,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6172,10 +6094,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6183,7 +6105,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
@@ -6198,13 +6120,13 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6255,16 +6177,16 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>99</v>
@@ -6284,10 +6206,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6307,16 +6229,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6367,7 +6289,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6379,13 +6301,13 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6396,21 +6318,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6419,19 +6341,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6481,25 +6403,25 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6510,46 +6432,44 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -6597,25 +6517,25 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6626,10 +6546,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6637,7 +6557,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -6652,15 +6572,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6685,13 +6607,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -6709,10 +6631,10 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
@@ -6721,7 +6643,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -6738,10 +6660,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6749,7 +6671,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>87</v>
@@ -6764,18 +6686,20 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -6823,10 +6747,10 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>87</v>
@@ -6847,1590 +6771,6 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Bundle.xlsx
+++ b/StructureDefinition-profile-Bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="283">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9940113-06:00</t>
+    <t>2026-02-17T14:42:26.7411658-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -502,21 +502,21 @@
     <t>Bundle.link.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -526,6 +526,27 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Bundle.link.extension:link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.link|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Bundle.link from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Bundle.link` has is mapped to FHIR R4 element `Bundle.link`, but has no comparisons.
+Note available implied context: `Bundle.entry.link` because `Bundle.entry.link` is defined as a content reference to `Bundle.link`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Bundle.link.modifierExtension</t>
   </si>
   <si>
@@ -540,6 +561,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -581,6 +605,22 @@
   </si>
   <si>
     <t>Bundle.entry.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry.extension:entry</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.entry|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Bundle.entry from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Bundle.entry` has is mapped to FHIR R4 element `Bundle.entry`, but has no comparisons.</t>
   </si>
   <si>
     <t>Bundle.entry.modifierExtension</t>
@@ -640,6 +680,16 @@
   </si>
   <si>
     <t>Bundle.entry.search.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Bundle.entry.search.modifierExtension</t>
@@ -1162,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1181,7 +1231,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2591,7 +2641,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2610,17 +2660,15 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2657,16 +2705,14 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>160</v>
@@ -2687,7 +2733,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2701,11 +2747,13 @@
         <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2718,26 +2766,24 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>166</v>
       </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2785,7 +2831,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2794,7 +2840,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>161</v>
@@ -2803,7 +2849,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -2821,35 +2867,39 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2897,25 +2947,25 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -2926,10 +2976,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2952,13 +3002,13 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3009,7 +3059,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3038,10 +3088,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3049,10 +3099,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3064,13 +3114,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3121,19 +3171,19 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3150,10 +3200,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3164,7 +3214,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3173,16 +3223,16 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3233,25 +3283,25 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3262,21 +3312,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3288,17 +3338,15 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3347,19 +3395,19 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
@@ -3376,14 +3424,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3396,26 +3444,22 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3451,19 +3495,17 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3481,7 +3523,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3492,12 +3534,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3515,18 +3559,20 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3575,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3584,10 +3630,10 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3604,44 +3650,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3689,25 +3737,25 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3718,10 +3766,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3732,7 +3780,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3744,13 +3792,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3801,19 +3849,19 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -3830,10 +3878,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3856,15 +3904,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3913,7 +3963,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3922,7 +3972,7 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -3942,10 +3992,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3965,16 +4015,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4025,7 +4075,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4043,7 +4093,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4054,21 +4104,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4077,20 +4127,18 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4139,25 +4187,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4168,46 +4216,42 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4255,25 +4299,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4284,21 +4328,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4307,19 +4351,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4345,13 +4389,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4369,25 +4413,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4398,44 +4442,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4483,25 +4529,25 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4512,10 +4558,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4538,15 +4584,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4571,13 +4619,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4595,7 +4643,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4604,7 +4652,7 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
@@ -4624,10 +4672,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4647,18 +4695,20 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4707,7 +4757,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4719,13 +4769,13 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4736,21 +4786,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4759,20 +4809,18 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4821,25 +4869,25 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4850,46 +4898,42 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -4937,25 +4981,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -4966,21 +5010,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -4989,18 +5033,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5025,13 +5071,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5049,25 +5095,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5078,44 +5124,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5163,25 +5211,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5192,10 +5240,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5203,7 +5251,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5218,13 +5266,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5251,13 +5299,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5275,10 +5323,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>87</v>
@@ -5304,10 +5352,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5315,7 +5363,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -5330,15 +5378,17 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5387,10 +5437,10 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>87</v>
@@ -5416,10 +5466,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5445,10 +5495,10 @@
         <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5499,7 +5549,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5528,10 +5578,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5554,13 +5604,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5611,7 +5661,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5640,10 +5690,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5666,13 +5716,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5723,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5732,7 +5782,7 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
@@ -5752,10 +5802,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5775,16 +5825,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5835,7 +5885,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5847,13 +5897,13 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -5864,21 +5914,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -5887,20 +5937,18 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -5949,25 +5997,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -5978,46 +6026,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6065,25 +6109,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6094,21 +6138,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6117,18 +6161,20 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6177,25 +6223,25 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6206,42 +6252,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6289,25 +6339,25 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6318,10 +6368,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6329,7 +6379,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
@@ -6347,14 +6397,12 @@
         <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6403,10 +6451,10 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>87</v>
@@ -6432,10 +6480,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6458,17 +6506,15 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6517,7 +6563,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6546,10 +6592,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6572,16 +6618,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6631,7 +6677,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6643,7 +6689,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -6660,10 +6706,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6686,20 +6732,18 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -6747,7 +6791,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6771,6 +6815,236 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Bundle.xlsx
+++ b/StructureDefinition-profile-Bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7411658-06:00</t>
+    <t>2026-02-20T11:59:20.7385665-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Bundle|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Bundle</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -532,7 +532,7 @@
     <t>link</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.link|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.link}
 </t>
   </si>
   <si>
@@ -613,7 +613,7 @@
     <t>entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.entry|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.entry}
 </t>
   </si>
   <si>
@@ -1231,7 +1231,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Bundle.xlsx
+++ b/StructureDefinition-profile-Bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7385665-06:00</t>
+    <t>2026-02-21T13:36:54.1382058-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Bundle</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Bundle|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -502,21 +502,21 @@
     <t>Bundle.link.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -526,27 +526,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Bundle.link.extension:link</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.link}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Bundle.link from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Bundle.link` has is mapped to FHIR R4 element `Bundle.link`, but has no comparisons.
-Note available implied context: `Bundle.entry.link` because `Bundle.entry.link` is defined as a content reference to `Bundle.link`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Bundle.link.modifierExtension</t>
   </si>
   <si>
@@ -561,9 +540,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -605,22 +581,6 @@
   </si>
   <si>
     <t>Bundle.entry.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.extension:entry</t>
-  </si>
-  <si>
-    <t>entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Bundle.entry}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Bundle.entry from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Bundle.entry` has is mapped to FHIR R4 element `Bundle.entry`, but has no comparisons.</t>
   </si>
   <si>
     <t>Bundle.entry.modifierExtension</t>
@@ -680,16 +640,6 @@
   </si>
   <si>
     <t>Bundle.entry.search.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Bundle.entry.search.modifierExtension</t>
@@ -1212,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1231,7 +1181,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.4296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2641,7 +2591,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2660,15 +2610,17 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2705,14 +2657,16 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>160</v>
@@ -2733,7 +2687,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2747,13 +2701,11 @@
         <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2766,24 +2718,26 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="N14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2831,7 +2785,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2840,7 +2794,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>161</v>
@@ -2849,7 +2803,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -2867,39 +2821,35 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2947,25 +2897,25 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -2976,10 +2926,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3002,13 +2952,13 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3059,7 +3009,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3088,10 +3038,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3099,10 +3049,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3114,13 +3064,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3171,19 +3121,19 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3200,10 +3150,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3214,7 +3164,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3223,16 +3173,16 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3283,25 +3233,25 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3312,21 +3262,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3338,15 +3288,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3395,19 +3347,19 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
@@ -3424,14 +3376,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3444,22 +3396,26 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3495,17 +3451,19 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3523,7 +3481,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3534,14 +3492,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3559,20 +3515,18 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3621,7 +3575,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3630,10 +3584,10 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3650,46 +3604,44 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3737,25 +3689,25 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3766,10 +3718,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3780,7 +3732,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3792,13 +3744,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3849,19 +3801,19 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -3878,10 +3830,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3904,17 +3856,15 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3963,7 +3913,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3972,7 +3922,7 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -3992,10 +3942,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4015,16 +3965,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4075,7 +4025,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4093,7 +4043,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4104,21 +4054,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4127,18 +4077,20 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4187,25 +4139,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4216,42 +4168,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4299,25 +4255,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4328,21 +4284,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4351,19 +4307,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4389,13 +4345,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4413,25 +4369,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4442,46 +4398,44 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4529,25 +4483,25 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4558,10 +4512,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4584,17 +4538,15 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4619,13 +4571,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4643,7 +4595,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4652,7 +4604,7 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
@@ -4672,10 +4624,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4695,20 +4647,18 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4757,7 +4707,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4769,13 +4719,13 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4786,21 +4736,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4809,18 +4759,20 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4869,25 +4821,25 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4898,42 +4850,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -4981,25 +4937,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5010,21 +4966,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5033,20 +4989,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5071,13 +5025,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5095,25 +5049,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5124,46 +5078,44 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5211,25 +5163,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5240,10 +5192,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5251,7 +5203,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5266,13 +5218,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5299,13 +5251,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5323,10 +5275,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>87</v>
@@ -5352,10 +5304,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5363,7 +5315,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -5378,17 +5330,15 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5437,10 +5387,10 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>87</v>
@@ -5466,10 +5416,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5495,10 +5445,10 @@
         <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5549,7 +5499,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5578,10 +5528,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5604,13 +5554,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5661,7 +5611,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5690,10 +5640,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5716,13 +5666,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5773,7 +5723,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5782,7 +5732,7 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
@@ -5802,10 +5752,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5825,16 +5775,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5885,7 +5835,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5897,13 +5847,13 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -5914,21 +5864,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -5937,18 +5887,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -5997,25 +5949,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6026,42 +5978,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6109,25 +6065,25 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6138,21 +6094,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6161,20 +6117,18 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6223,25 +6177,25 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6252,46 +6206,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6339,25 +6289,25 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6368,10 +6318,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6379,7 +6329,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
@@ -6397,12 +6347,14 @@
         <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6451,10 +6403,10 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>87</v>
@@ -6480,10 +6432,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6506,15 +6458,17 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6563,7 +6517,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6592,10 +6546,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6618,16 +6572,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6677,7 +6631,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6689,7 +6643,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -6706,10 +6660,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6732,18 +6686,20 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -6791,7 +6747,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6815,236 +6771,6 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
     </row>
